--- a/data/extracted_data/raw_round2/Kvrgic_2022_Fig_2.xlsx
+++ b/data/extracted_data/raw_round2/Kvrgic_2022_Fig_2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDF51C4-6BD4-8849-8BDC-E4F9B8D65080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{FBDF51C4-6BD4-8849-8BDC-E4F9B8D65080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65B2F7FB-9352-744D-A9A3-875502FBEA19}"/>
   <bookViews>
-    <workbookView xWindow="22420" yWindow="5820" windowWidth="27640" windowHeight="16940" xr2:uid="{40373340-2320-614A-A8B0-2B074DEB8B8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{40373340-2320-614A-A8B0-2B074DEB8B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>Queen scallops</t>
   </si>
@@ -44,10 +44,22 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>toxticity</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -83,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -144,7 +157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -250,7 +263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,146 +413,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D43D6A-9FF5-6641-BDB4-893903A187E1}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
         <v>43191</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <f>$C2-$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
         <v>43221</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D12" si="0">$C3-$C$2</f>
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
         <v>43282</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
         <v>43313</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="E5">
         <v>22.190201729106501</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
         <v>43344</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="E6">
         <v>34.293948126801098</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
         <v>43374</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="E7">
         <v>12.103746397694501</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>43405</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="E8">
         <v>336.887608069164</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
         <v>43435</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="E9">
         <v>500.28818443803999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
         <v>43466</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="E10">
         <v>119.020172910662</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
         <v>43497</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="E11">
         <v>36.311239193083402</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
         <v>43525</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="E12">
         <v>34.293948126801098</v>
       </c>
     </row>
